--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bolos\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B0888A7-8089-49DA-8673-A2C6B323C92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D8E9583-C88A-4A08-8D47-E431494466F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2235" windowWidth="21600" windowHeight="12930" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="66">
   <si>
     <t>Atividades</t>
   </si>
@@ -457,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -491,6 +491,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031B188A-FB66-423D-ADB7-527F5C367F13}">
   <dimension ref="A1:AV96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V88" sqref="V88"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,52 +874,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="34" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
     </row>
     <row r="2" spans="1:48" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1470,25 +1476,25 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="31"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="33"/>
     </row>
     <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -1674,7 +1680,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1699,7 +1705,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1722,7 +1728,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>
       <c r="G26" s="7"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1745,7 +1751,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1789,7 +1795,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1984,14 +1990,16 @@
         <f>COUNTBLANK(AA36:AE36)</f>
         <v>1</v>
       </c>
-      <c r="AG36" s="1"/>
+      <c r="AG36" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
       <c r="AL36">
         <f>COUNTBLANK(AG36:AK36)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
@@ -2098,14 +2106,16 @@
         <f>COUNTBLANK(AA37:AE37)</f>
         <v>0</v>
       </c>
-      <c r="AG37" s="1"/>
+      <c r="AG37" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
       <c r="AL37">
         <f>COUNTBLANK(AG37:AK37)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
@@ -2190,10 +2200,12 @@
       </c>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
+      <c r="AE38" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="AF38">
         <f>COUNTBLANK(AA38:AE38)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
@@ -2306,14 +2318,16 @@
         <f>COUNTBLANK(AA39:AE39)</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="1"/>
+      <c r="AG39" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39">
         <f>COUNTBLANK(AG39:AK39)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM39" s="1"/>
       <c r="AN39" s="1"/>
@@ -2385,14 +2399,16 @@
         <f>COUNTBLANK(AA40:AE40)</f>
         <v>2</v>
       </c>
-      <c r="AG40" s="1"/>
+      <c r="AG40" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
       <c r="AL40">
         <f>COUNTBLANK(AG40:AK40)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM40" s="1"/>
       <c r="AN40" s="1"/>
@@ -2489,7 +2505,7 @@
       </c>
       <c r="AL43">
         <f>$AL$42-AL36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43" t="s">
         <v>43</v>
@@ -2540,7 +2556,7 @@
       </c>
       <c r="AL44">
         <f>$AL$42-AL37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44" t="s">
         <v>42</v>
@@ -2584,7 +2600,7 @@
       </c>
       <c r="AF45">
         <f>$AF$42-AF38</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK45" t="s">
         <v>44</v>
@@ -2642,7 +2658,7 @@
       </c>
       <c r="AL46">
         <f>$AL$42-AL39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46" t="s">
         <v>41</v>
@@ -2693,7 +2709,7 @@
       </c>
       <c r="AL47">
         <f>$AL$42-AL40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ47" t="s">
         <v>45</v>
@@ -2732,23 +2748,23 @@
       </c>
       <c r="C51">
         <f>SUM(H43,N43,T43,Z43,AF43,AL43,AR43)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51">
         <f>SUM(H44,N44,T44,Z44,AF44,AL44,AR44)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E51">
         <f>SUM(H45,N45,T45,Z45,AF45,AL45,AR45)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F51">
         <f>SUM(H46,N46,T46,Z46,AF46,AL46,AR46)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G51">
         <f>SUM(H47,N47,T47,Z47,AF47,AL47,AR47)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2757,23 +2773,23 @@
       </c>
       <c r="C52">
         <f>$A$55*C51</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D52">
         <f>$A$55*D51</f>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E52">
         <f>$A$55*E51</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F52">
         <f>$A$55*F51</f>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G52">
         <f>$A$55*G51</f>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2800,7 +2816,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>SUM(C52:G52)</f>
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>40</v>
@@ -2817,14 +2833,14 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <f>B58*A57</f>
-        <v>3280</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="36"/>
+      <c r="B64" s="30"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -2857,10 +2873,10 @@
       <c r="B69" s="20"/>
     </row>
     <row r="71" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="34" t="s">
+      <c r="A71" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="36"/>
+      <c r="B71" s="30"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -2903,16 +2919,16 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="36"/>
+      <c r="B78" s="30"/>
     </row>
     <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="31" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2920,7 +2936,7 @@
       <c r="A80" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="31" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2928,7 +2944,7 @@
       <c r="A81" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="31" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2966,14 +2982,11 @@
       <c r="B96" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="P1:Y1"/>
     <mergeCell ref="C17:R17"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bolos\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D8E9583-C88A-4A08-8D47-E431494466F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D449C39-2671-4BC4-9E5B-83D3260B9D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2235" windowWidth="21600" windowHeight="12930" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="66">
   <si>
     <t>Atividades</t>
   </si>
@@ -457,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -504,6 +504,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -836,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031B188A-FB66-423D-ADB7-527F5C367F13}">
   <dimension ref="A1:AV96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,52 +877,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="34" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="36" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="38"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="41"/>
       <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
     </row>
     <row r="2" spans="1:48" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -998,9 +1001,6 @@
         <v>11</v>
       </c>
       <c r="Z2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR2" t="s">
         <v>37</v>
       </c>
       <c r="AV2" s="25"/>
@@ -1239,8 +1239,8 @@
       <c r="J10" s="1"/>
       <c r="K10" s="7"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="14"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="36"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="14"/>
@@ -1420,63 +1420,9 @@
       <c r="Z14" t="s">
         <v>37</v>
       </c>
-      <c r="AA14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="36" t="s">
+    </row>
+    <row r="17" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="37" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="37"/>
@@ -1496,7 +1442,7 @@
       <c r="R17" s="37"/>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1578,7 +1524,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1601,7 +1547,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>26</v>
       </c>
@@ -1624,7 +1570,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
@@ -1647,7 +1593,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -1670,7 +1616,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
@@ -1682,7 +1628,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="6"/>
       <c r="G24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1693,7 +1639,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>12</v>
       </c>
@@ -1706,8 +1652,8 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="O25" s="1"/>
@@ -1716,7 +1662,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
@@ -1729,7 +1675,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1739,7 +1685,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>14</v>
       </c>
@@ -1752,8 +1698,8 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="O27" s="1"/>
@@ -1762,11 +1708,13 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1783,7 +1731,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>16</v>
       </c>
@@ -1796,8 +1744,8 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="O29" s="1"/>
@@ -1806,6 +1754,62 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>35</v>
+      </c>
+      <c r="R30" t="s">
+        <v>36</v>
+      </c>
+      <c r="S30" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="35" spans="2:44" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>14</v>
@@ -1993,13 +1997,15 @@
       <c r="AG36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AH36" s="1"/>
+      <c r="AH36" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
       <c r="AL36">
         <f>COUNTBLANK(AG36:AK36)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
@@ -2109,13 +2115,17 @@
       <c r="AG37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1"/>
+      <c r="AH37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
       <c r="AL37">
         <f>COUNTBLANK(AG37:AK37)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
@@ -2207,14 +2217,18 @@
         <f>COUNTBLANK(AA38:AE38)</f>
         <v>2</v>
       </c>
-      <c r="AG38" s="1"/>
+      <c r="AG38" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
+      <c r="AI38" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
       <c r="AL38">
         <f>COUNTBLANK(AG38:AK38)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
@@ -2321,13 +2335,17 @@
       <c r="AG39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
+      <c r="AH39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI39" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39">
         <f>COUNTBLANK(AG39:AK39)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM39" s="1"/>
       <c r="AN39" s="1"/>
@@ -2505,7 +2523,7 @@
       </c>
       <c r="AL43">
         <f>$AL$42-AL36</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="s">
         <v>43</v>
@@ -2556,7 +2574,7 @@
       </c>
       <c r="AL44">
         <f>$AL$42-AL37</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ44" t="s">
         <v>42</v>
@@ -2607,7 +2625,7 @@
       </c>
       <c r="AL45">
         <f>$AL$42-AL38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ45" t="s">
         <v>44</v>
@@ -2658,7 +2676,7 @@
       </c>
       <c r="AL46">
         <f>$AL$42-AL39</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ46" t="s">
         <v>41</v>
@@ -2748,19 +2766,19 @@
       </c>
       <c r="C51">
         <f>SUM(H43,N43,T43,Z43,AF43,AL43,AR43)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <f>SUM(H44,N44,T44,Z44,AF44,AL44,AR44)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E51">
         <f>SUM(H45,N45,T45,Z45,AF45,AL45,AR45)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F51">
         <f>SUM(H46,N46,T46,Z46,AF46,AL46,AR46)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G51">
         <f>SUM(H47,N47,T47,Z47,AF47,AL47,AR47)</f>
@@ -2773,19 +2791,19 @@
       </c>
       <c r="C52">
         <f>$A$55*C51</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D52">
         <f>$A$55*D51</f>
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E52">
         <f>$A$55*E51</f>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F52">
         <f>$A$55*F51</f>
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G52">
         <f>$A$55*G51</f>
@@ -2816,7 +2834,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>SUM(C52:G52)</f>
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>40</v>
@@ -2833,7 +2851,7 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <f>B58*A57</f>
-        <v>3480</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bolos\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D449C39-2671-4BC4-9E5B-83D3260B9D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3640EEC5-AB4C-4FEA-88C5-344D75E86FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2235" windowWidth="21600" windowHeight="12930" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="66">
   <si>
     <t>Atividades</t>
   </si>
@@ -457,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -493,20 +493,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -839,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031B188A-FB66-423D-ADB7-527F5C367F13}">
   <dimension ref="A1:AV96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL31" sqref="AL31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +847,8 @@
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.140625" customWidth="1"/>
-    <col min="18" max="19" width="3" customWidth="1"/>
+    <col min="18" max="18" width="3" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
     <col min="21" max="25" width="3" customWidth="1"/>
     <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
@@ -873,56 +866,56 @@
     <col min="44" max="44" width="7" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="4.140625" customWidth="1"/>
     <col min="49" max="49" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.7109375" customWidth="1"/>
+    <col min="50" max="50" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="39" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
     </row>
     <row r="2" spans="1:48" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1239,8 +1232,8 @@
       <c r="J10" s="1"/>
       <c r="K10" s="7"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="36"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="9"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="14"/>
@@ -1422,25 +1415,25 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -1654,9 +1647,9 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="O25" s="7"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -1677,8 +1670,8 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -1700,9 +1693,9 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="7"/>
       <c r="M27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="O27" s="7"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -1746,7 +1739,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2001,11 +1994,15 @@
         <v>23</v>
       </c>
       <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
+      <c r="AJ36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK36" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="AL36">
         <f>COUNTBLANK(AG36:AK36)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
@@ -2121,20 +2118,24 @@
       <c r="AI37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AJ37" s="1"/>
+      <c r="AJ37" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="AK37" s="1"/>
       <c r="AL37">
         <f>COUNTBLANK(AG37:AK37)</f>
-        <v>2</v>
-      </c>
-      <c r="AM37" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="AM37" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37">
         <f>COUNTBLANK(AM37:AQ37)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="2:44" x14ac:dyDescent="0.25">
@@ -2224,20 +2225,26 @@
       <c r="AI38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
+      <c r="AJ38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK38" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="AL38">
         <f>COUNTBLANK(AG38:AK38)</f>
-        <v>3</v>
-      </c>
-      <c r="AM38" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="AM38" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
       <c r="AR38">
         <f>COUNTBLANK(AM38:AQ38)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="2:44" x14ac:dyDescent="0.25">
@@ -2341,20 +2348,26 @@
       <c r="AI39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
+      <c r="AJ39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK39" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="AL39">
         <f>COUNTBLANK(AG39:AK39)</f>
-        <v>2</v>
-      </c>
-      <c r="AM39" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM39" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="AN39" s="1"/>
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1"/>
       <c r="AR39">
         <f>COUNTBLANK(AM39:AQ39)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:44" x14ac:dyDescent="0.25">
@@ -2523,7 +2536,7 @@
       </c>
       <c r="AL43">
         <f>$AL$42-AL36</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ43" t="s">
         <v>43</v>
@@ -2574,14 +2587,14 @@
       </c>
       <c r="AL44">
         <f>$AL$42-AL37</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ44" t="s">
         <v>42</v>
       </c>
       <c r="AR44">
         <f>$AR$42-AR37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:44" x14ac:dyDescent="0.25">
@@ -2625,14 +2638,14 @@
       </c>
       <c r="AL45">
         <f>$AL$42-AL38</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ45" t="s">
         <v>44</v>
       </c>
       <c r="AR45">
         <f>$AR$42-AR38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:44" x14ac:dyDescent="0.25">
@@ -2676,14 +2689,14 @@
       </c>
       <c r="AL46">
         <f>$AL$42-AL39</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ46" t="s">
         <v>41</v>
       </c>
       <c r="AR46">
         <f>$AR$42-AR39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:44" x14ac:dyDescent="0.25">
@@ -2766,19 +2779,19 @@
       </c>
       <c r="C51">
         <f>SUM(H43,N43,T43,Z43,AF43,AL43,AR43)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <f>SUM(H44,N44,T44,Z44,AF44,AL44,AR44)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E51">
         <f>SUM(H45,N45,T45,Z45,AF45,AL45,AR45)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F51">
         <f>SUM(H46,N46,T46,Z46,AF46,AL46,AR46)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G51">
         <f>SUM(H47,N47,T47,Z47,AF47,AL47,AR47)</f>
@@ -2791,19 +2804,19 @@
       </c>
       <c r="C52">
         <f>$A$55*C51</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D52">
         <f>$A$55*D51</f>
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E52">
         <f>$A$55*E51</f>
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F52">
         <f>$A$55*F51</f>
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G52">
         <f>$A$55*G51</f>
@@ -2834,7 +2847,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>SUM(C52:G52)</f>
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>40</v>
@@ -2851,14 +2864,14 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <f>B58*A57</f>
-        <v>3760</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="30"/>
+      <c r="B64" s="37"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -2891,10 +2904,10 @@
       <c r="B69" s="20"/>
     </row>
     <row r="71" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="30"/>
+      <c r="B71" s="37"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -2937,16 +2950,16 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="30"/>
+      <c r="B78" s="37"/>
     </row>
     <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="29" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2954,7 +2967,7 @@
       <c r="A80" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="29" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2962,7 +2975,7 @@
       <c r="A81" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="29" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3000,11 +3013,14 @@
       <c r="B96" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A78:B78"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="P1:Y1"/>
     <mergeCell ref="C17:R17"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3176,15 +3192,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D475898-E486-42AB-878D-446EFC1D4EB4}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8a97343b-4b20-40ce-9e20-8607f0999062"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8a97343b-4b20-40ce-9e20-8607f0999062"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bolos\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3640EEC5-AB4C-4FEA-88C5-344D75E86FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F8DC9A9-DF53-4F37-9051-DD11D4C9D036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="66">
   <si>
     <t>Atividades</t>
   </si>
@@ -499,19 +499,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031B188A-FB66-423D-ADB7-527F5C367F13}">
   <dimension ref="A1:AV96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL31" sqref="AL31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AV44" sqref="AV44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,35 +870,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="35" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="34"/>
       <c r="Z1" s="30"/>
       <c r="AA1" s="32"/>
       <c r="AB1" s="32"/>
@@ -1415,24 +1415,24 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
@@ -1650,8 +1650,8 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="11"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
@@ -1673,7 +1673,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="P26" s="7"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -1696,7 +1696,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="1"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="1"/>
+      <c r="P27" s="7"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2005,13 +2005,15 @@
         <v>1</v>
       </c>
       <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
+      <c r="AN36" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AR36">
         <f>COUNTBLANK(AM36:AQ36)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:44" x14ac:dyDescent="0.25">
@@ -2129,13 +2131,15 @@
       <c r="AM37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AN37" s="1"/>
+      <c r="AN37" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37">
         <f>COUNTBLANK(AM37:AQ37)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:44" x14ac:dyDescent="0.25">
@@ -2238,13 +2242,15 @@
       <c r="AM38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AN38" s="1"/>
+      <c r="AN38" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
       <c r="AR38">
         <f>COUNTBLANK(AM38:AQ38)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:44" x14ac:dyDescent="0.25">
@@ -2361,13 +2367,15 @@
       <c r="AM39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AN39" s="1"/>
+      <c r="AN39" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1"/>
       <c r="AR39">
         <f>COUNTBLANK(AM39:AQ39)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:44" x14ac:dyDescent="0.25">
@@ -2458,42 +2466,6 @@
       <c r="H42">
         <v>5</v>
       </c>
-      <c r="M42" t="s">
-        <v>39</v>
-      </c>
-      <c r="N42">
-        <v>5</v>
-      </c>
-      <c r="S42" t="s">
-        <v>39</v>
-      </c>
-      <c r="T42">
-        <v>5</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z42">
-        <v>5</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF42">
-        <v>5</v>
-      </c>
-      <c r="AK42" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL42">
-        <v>5</v>
-      </c>
-      <c r="AQ42" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR42">
-        <v>5</v>
-      </c>
     </row>
     <row r="43" spans="2:44" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
@@ -2507,43 +2479,43 @@
         <v>43</v>
       </c>
       <c r="N43">
-        <f>$N$42-N36</f>
+        <f>$H$42-N36</f>
         <v>3</v>
       </c>
       <c r="S43" t="s">
         <v>43</v>
       </c>
       <c r="T43">
-        <f>$T$42-T36</f>
+        <f>$H$42-T36</f>
         <v>1</v>
       </c>
       <c r="Y43" t="s">
         <v>43</v>
       </c>
       <c r="Z43">
-        <f>$Z$42-Z36</f>
+        <f>$H$42-Z36</f>
         <v>4</v>
       </c>
       <c r="AE43" t="s">
         <v>43</v>
       </c>
       <c r="AF43">
-        <f>$AF$42-AF36</f>
+        <f>$H$42-AF36</f>
         <v>4</v>
       </c>
       <c r="AK43" t="s">
         <v>43</v>
       </c>
       <c r="AL43">
-        <f>$AL$42-AL36</f>
+        <f>$H$42-AL36</f>
         <v>4</v>
       </c>
       <c r="AQ43" t="s">
         <v>43</v>
       </c>
       <c r="AR43">
-        <f>$AR$42-AR36</f>
-        <v>0</v>
+        <f>$H$42-AR36</f>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:44" x14ac:dyDescent="0.25">
@@ -2558,43 +2530,43 @@
         <v>42</v>
       </c>
       <c r="N44">
-        <f>$N$42-N37</f>
+        <f>$H$42-N37</f>
         <v>5</v>
       </c>
       <c r="S44" t="s">
         <v>42</v>
       </c>
       <c r="T44">
-        <f>$T$42-T37</f>
+        <f>$H$42-T37</f>
         <v>3</v>
       </c>
       <c r="Y44" t="s">
         <v>42</v>
       </c>
       <c r="Z44">
-        <f>$Z$42-Z37</f>
+        <f t="shared" ref="Z44:Z47" si="0">$H$42-Z37</f>
         <v>5</v>
       </c>
       <c r="AE44" t="s">
         <v>42</v>
       </c>
       <c r="AF44">
-        <f>$AF$42-AF37</f>
+        <f t="shared" ref="AF44:AF47" si="1">$H$42-AF37</f>
         <v>5</v>
       </c>
       <c r="AK44" t="s">
         <v>42</v>
       </c>
       <c r="AL44">
-        <f>$AL$42-AL37</f>
+        <f t="shared" ref="AL44:AL47" si="2">$H$42-AL37</f>
         <v>4</v>
       </c>
       <c r="AQ44" t="s">
         <v>42</v>
       </c>
       <c r="AR44">
-        <f>$AR$42-AR37</f>
-        <v>1</v>
+        <f t="shared" ref="AR44:AR47" si="3">$H$42-AR37</f>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="2:44" x14ac:dyDescent="0.25">
@@ -2609,43 +2581,43 @@
         <v>44</v>
       </c>
       <c r="N45">
-        <f>$N$42-N38</f>
+        <f>$H$42-N38</f>
         <v>5</v>
       </c>
       <c r="S45" t="s">
         <v>44</v>
       </c>
       <c r="T45">
-        <f>$T$42-T38</f>
+        <f>$H$42-T38</f>
         <v>1</v>
       </c>
       <c r="Y45" t="s">
         <v>44</v>
       </c>
       <c r="Z45">
-        <f>$Z$42-Z38</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AE45" t="s">
         <v>44</v>
       </c>
       <c r="AF45">
-        <f>$AF$42-AF38</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AK45" t="s">
         <v>44</v>
       </c>
       <c r="AL45">
-        <f>$AL$42-AL38</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AQ45" t="s">
         <v>44</v>
       </c>
       <c r="AR45">
-        <f>$AR$42-AR38</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:44" x14ac:dyDescent="0.25">
@@ -2660,43 +2632,43 @@
         <v>41</v>
       </c>
       <c r="N46">
-        <f>$N$42-N39</f>
+        <f>$H$42-N39</f>
         <v>5</v>
       </c>
       <c r="S46" t="s">
         <v>41</v>
       </c>
       <c r="T46">
-        <f>$T$42-T39</f>
+        <f>$H$42-T39</f>
         <v>3</v>
       </c>
       <c r="Y46" t="s">
         <v>41</v>
       </c>
       <c r="Z46">
-        <f>$Z$42-Z39</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AE46" t="s">
         <v>41</v>
       </c>
       <c r="AF46">
-        <f>$AF$42-AF39</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AK46" t="s">
         <v>41</v>
       </c>
       <c r="AL46">
-        <f>$AL$42-AL39</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AQ46" t="s">
         <v>41</v>
       </c>
       <c r="AR46">
-        <f>$AR$42-AR39</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:44" x14ac:dyDescent="0.25">
@@ -2711,42 +2683,42 @@
         <v>45</v>
       </c>
       <c r="N47">
-        <f>$N$42-N40</f>
+        <f>$H$42-N40</f>
         <v>1</v>
       </c>
       <c r="S47" t="s">
         <v>45</v>
       </c>
       <c r="T47">
-        <f>$T$42-T40</f>
+        <f>$H$42-T40</f>
         <v>1</v>
       </c>
       <c r="Y47" t="s">
         <v>45</v>
       </c>
       <c r="Z47">
-        <f>$Z$42-Z40</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AE47" t="s">
         <v>45</v>
       </c>
       <c r="AF47">
-        <f>$AF$42-AF40</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AK47" t="s">
         <v>45</v>
       </c>
       <c r="AL47">
-        <f>$AL$42-AL40</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AQ47" t="s">
         <v>45</v>
       </c>
       <c r="AR47">
-        <f>$AR$42-AR40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2779,19 +2751,19 @@
       </c>
       <c r="C51">
         <f>SUM(H43,N43,T43,Z43,AF43,AL43,AR43)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51">
         <f>SUM(H44,N44,T44,Z44,AF44,AL44,AR44)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E51">
         <f>SUM(H45,N45,T45,Z45,AF45,AL45,AR45)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F51">
         <f>SUM(H46,N46,T46,Z46,AF46,AL46,AR46)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G51">
         <f>SUM(H47,N47,T47,Z47,AF47,AL47,AR47)</f>
@@ -2804,19 +2776,19 @@
       </c>
       <c r="C52">
         <f>$A$55*C51</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D52">
         <f>$A$55*D51</f>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E52">
         <f>$A$55*E51</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F52">
         <f>$A$55*F51</f>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G52">
         <f>$A$55*G51</f>
@@ -2847,7 +2819,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>SUM(C52:G52)</f>
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>40</v>
@@ -2864,14 +2836,14 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <f>B58*A57</f>
-        <v>4160</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="37"/>
+      <c r="B64" s="34"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -2904,10 +2876,10 @@
       <c r="B69" s="20"/>
     </row>
     <row r="71" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="37"/>
+      <c r="B71" s="34"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -2950,10 +2922,10 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="37"/>
+      <c r="B78" s="34"/>
     </row>
     <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bolos\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F8DC9A9-DF53-4F37-9051-DD11D4C9D036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CFCD0B8-EC60-4F07-8F10-38E101B9550D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
+    <workbookView xWindow="5295" yWindow="810" windowWidth="21600" windowHeight="12930" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="68">
   <si>
     <t>Atividades</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>Principal</t>
+  </si>
+  <si>
+    <t>apresentar</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
   </si>
 </sst>
 </file>
@@ -357,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -452,12 +458,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -512,6 +529,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -831,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031B188A-FB66-423D-ADB7-527F5C367F13}">
   <dimension ref="A1:AV96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AV44" sqref="AV44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,81 +1360,111 @@
       <c r="Y13" s="7"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="C14" t="s">
+      <c r="A14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>35</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>37</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>33</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J15" t="s">
         <v>34</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K15" t="s">
         <v>35</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L15" t="s">
         <v>36</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M15" t="s">
         <v>33</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N15" t="s">
         <v>37</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O15" t="s">
         <v>33</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P15" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q15" t="s">
         <v>35</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R15" t="s">
         <v>36</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S15" t="s">
         <v>33</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T15" t="s">
         <v>37</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U15" t="s">
         <v>33</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V15" t="s">
         <v>34</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W15" t="s">
         <v>35</v>
       </c>
-      <c r="X14" t="s">
+      <c r="X15" t="s">
         <v>36</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y15" t="s">
         <v>33</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="35" t="s">
         <v>3</v>
       </c>
@@ -1651,8 +1701,8 @@
       <c r="M25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="1"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -1674,8 +1724,8 @@
       <c r="M26" s="7"/>
       <c r="O26" s="1"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -1697,8 +1747,8 @@
       <c r="M27" s="1"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -1743,63 +1793,86 @@
       <c r="M29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="A30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="7"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>34</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>35</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>36</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>33</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" t="s">
         <v>37</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I31" t="s">
         <v>33</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J31" t="s">
         <v>34</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K31" t="s">
         <v>35</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L31" t="s">
         <v>36</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M31" t="s">
         <v>33</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N31" t="s">
         <v>37</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O31" t="s">
         <v>33</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P31" t="s">
         <v>34</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q31" t="s">
         <v>35</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R31" t="s">
         <v>36</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S31" t="s">
         <v>33</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T31" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2008,12 +2081,18 @@
       <c r="AN36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
+      <c r="AO36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="AR36">
         <f>COUNTBLANK(AM36:AQ36)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:44" x14ac:dyDescent="0.25">
@@ -2134,12 +2213,18 @@
       <c r="AN37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AO37" s="1"/>
-      <c r="AP37" s="1"/>
-      <c r="AQ37" s="1"/>
+      <c r="AO37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="AR37">
         <f>COUNTBLANK(AM37:AQ37)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:44" x14ac:dyDescent="0.25">
@@ -2245,12 +2330,18 @@
       <c r="AN38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
+      <c r="AO38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ38" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="AR38">
         <f>COUNTBLANK(AM38:AQ38)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:44" x14ac:dyDescent="0.25">
@@ -2370,12 +2461,18 @@
       <c r="AN39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
+      <c r="AO39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ39" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="AR39">
         <f>COUNTBLANK(AM39:AQ39)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:44" x14ac:dyDescent="0.25">
@@ -2515,7 +2612,7 @@
       </c>
       <c r="AR43">
         <f>$H$42-AR36</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:44" x14ac:dyDescent="0.25">
@@ -2566,7 +2663,7 @@
       </c>
       <c r="AR44">
         <f t="shared" ref="AR44:AR47" si="3">$H$42-AR37</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:44" x14ac:dyDescent="0.25">
@@ -2617,7 +2714,7 @@
       </c>
       <c r="AR45">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:44" x14ac:dyDescent="0.25">
@@ -2668,7 +2765,7 @@
       </c>
       <c r="AR46">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="2:44" x14ac:dyDescent="0.25">
@@ -2751,19 +2848,19 @@
       </c>
       <c r="C51">
         <f>SUM(H43,N43,T43,Z43,AF43,AL43,AR43)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D51">
         <f>SUM(H44,N44,T44,Z44,AF44,AL44,AR44)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E51">
         <f>SUM(H45,N45,T45,Z45,AF45,AL45,AR45)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F51">
         <f>SUM(H46,N46,T46,Z46,AF46,AL46,AR46)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G51">
         <f>SUM(H47,N47,T47,Z47,AF47,AL47,AR47)</f>
@@ -2776,19 +2873,19 @@
       </c>
       <c r="C52">
         <f>$A$55*C51</f>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D52">
         <f>$A$55*D51</f>
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E52">
         <f>$A$55*E51</f>
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F52">
         <f>$A$55*F51</f>
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G52">
         <f>$A$55*G51</f>
@@ -2819,7 +2916,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>SUM(C52:G52)</f>
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>40</v>
@@ -2836,7 +2933,7 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <f>B58*A57</f>
-        <v>4320</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -2985,7 +3082,7 @@
       <c r="B96" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="A1:B1"/>
@@ -2993,6 +3090,7 @@
     <mergeCell ref="C17:R17"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3001,21 +3099,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009DFC5D36B0CC624DBEB8429956120FDE" ma:contentTypeVersion="4" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e3cdc7512c4be88b64334644f4cb62c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8a97343b-4b20-40ce-9e20-8607f0999062" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8170e47693c25e86e4aafc28b07a1c70" ns3:_="">
     <xsd:import namespace="8a97343b-4b20-40ce-9e20-8607f0999062"/>
@@ -3161,31 +3244,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D475898-E486-42AB-878D-446EFC1D4EB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8a97343b-4b20-40ce-9e20-8607f0999062"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CA5E52C-7D7F-4D00-BA0A-5B3943FBF186}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6713F9FF-8600-4940-B9CC-B2DCFC1EECBA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3201,4 +3275,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CA5E52C-7D7F-4D00-BA0A-5B3943FBF186}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D475898-E486-42AB-878D-446EFC1D4EB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8a97343b-4b20-40ce-9e20-8607f0999062"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bolos\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CFCD0B8-EC60-4F07-8F10-38E101B9550D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1803F4C-0549-4F1B-963D-CFA73C29F8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5295" yWindow="810" windowWidth="21600" windowHeight="12930" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
   </bookViews>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031B188A-FB66-423D-ADB7-527F5C367F13}">
   <dimension ref="A1:AV96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1703,7 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="1"/>
+      <c r="S25" s="7"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -1726,7 +1726,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="1"/>
+      <c r="S26" s="7"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -1749,7 +1749,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="1"/>
+      <c r="S27" s="7"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -1795,7 +1795,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="1"/>
+      <c r="S29" s="7"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -1818,7 +1818,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="7"/>
+      <c r="S30" s="11"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C31" t="s">

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bolos\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1803F4C-0549-4F1B-963D-CFA73C29F8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30936EBE-5B99-49C1-A6E2-8C6C08B8C671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5295" yWindow="810" windowWidth="21600" windowHeight="12930" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="69">
   <si>
     <t>Atividades</t>
   </si>
@@ -247,10 +247,13 @@
     <t>Principal</t>
   </si>
   <si>
-    <t>apresentar</t>
-  </si>
-  <si>
     <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>Dia/Abril</t>
+  </si>
+  <si>
+    <t>apresentação</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -514,7 +517,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -849,17 +851,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031B188A-FB66-423D-ADB7-527F5C367F13}">
-  <dimension ref="A1:AV96"/>
+  <dimension ref="A1:AX96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG55" sqref="AG55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="3" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="3.140625" bestFit="1" customWidth="1"/>
@@ -884,58 +888,59 @@
     <col min="39" max="42" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="3.140625" customWidth="1"/>
     <col min="44" max="44" width="7" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.140625" customWidth="1"/>
-    <col min="49" max="49" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.140625" customWidth="1"/>
+    <col min="46" max="48" width="3.28515625" customWidth="1"/>
+    <col min="49" max="49" width="3.140625" customWidth="1"/>
+    <col min="50" max="50" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="35" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="33" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="34"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="33"/>
       <c r="Z1" s="30"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
     </row>
     <row r="2" spans="1:48" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1361,10 +1366,10 @@
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1462,30 +1467,38 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="35" t="s">
+    <row r="17" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="31"/>
-    </row>
-    <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+    </row>
+    <row r="18" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1543,8 +1556,29 @@
       <c r="S18" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T18" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" s="1">
+        <v>4</v>
+      </c>
+      <c r="V18" s="1">
+        <v>5</v>
+      </c>
+      <c r="W18" s="1">
+        <v>6</v>
+      </c>
+      <c r="X18" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1566,8 +1600,13 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1589,8 +1628,13 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>26</v>
       </c>
@@ -1612,8 +1656,13 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
@@ -1635,8 +1684,13 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -1658,8 +1712,13 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
@@ -1681,8 +1740,13 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>12</v>
       </c>
@@ -1704,8 +1768,13 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
@@ -1727,8 +1796,13 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" s="7"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>14</v>
       </c>
@@ -1750,8 +1824,13 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" s="7"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>15</v>
       </c>
@@ -1773,8 +1852,13 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>16</v>
       </c>
@@ -1796,13 +1880,18 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" s="7"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1819,8 +1908,13 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="11"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1875,8 +1969,11 @@
       <c r="T31" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="Z31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:50" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>14</v>
       </c>
@@ -1984,8 +2081,23 @@
       <c r="AQ35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AS35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>7</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -2094,8 +2206,19 @@
         <f>COUNTBLANK(AM36:AQ36)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AS36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36">
+        <f>COUNTBLANK(AS36:AW36)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>31</v>
       </c>
@@ -2226,8 +2349,19 @@
         <f>COUNTBLANK(AM37:AQ37)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AS37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37">
+        <f>COUNTBLANK(AS37:AW37)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:50" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>22</v>
       </c>
@@ -2343,8 +2477,17 @@
         <f>COUNTBLANK(AM38:AQ38)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38">
+        <f>COUNTBLANK(AS38:AW38)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:50" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>29</v>
       </c>
@@ -2474,8 +2617,17 @@
         <f>COUNTBLANK(AM39:AQ39)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39">
+        <f>COUNTBLANK(AS39:AW39)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:50" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2555,8 +2707,17 @@
         <f>COUNTBLANK(AM40:AQ40)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40">
+        <f>COUNTBLANK(AS40:AW40)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:50" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>39</v>
       </c>
@@ -2564,7 +2725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:50" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>43</v>
       </c>
@@ -2614,8 +2775,12 @@
         <f>$H$42-AR36</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AX43">
+        <f>$H$42-AX36</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:50" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>42</v>
       </c>
@@ -2665,8 +2830,12 @@
         <f t="shared" ref="AR44:AR47" si="3">$H$42-AR37</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AX44">
+        <f>$H$42-AX37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:50" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>44</v>
       </c>
@@ -2716,8 +2885,12 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AX45">
+        <f t="shared" ref="AX44:AX47" si="4">$H$42-AX38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:50" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
         <v>41</v>
       </c>
@@ -2767,8 +2940,12 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AX46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:50" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>45</v>
       </c>
@@ -2818,8 +2995,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AX47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:50" x14ac:dyDescent="0.25">
       <c r="AM48" s="23"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2847,23 +3028,23 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <f>SUM(H43,N43,T43,Z43,AF43,AL43,AR43)</f>
-        <v>21</v>
+        <f>SUM(H43,N43,T43,Z43,AF43,AL43,AR43,AX43)</f>
+        <v>22</v>
       </c>
       <c r="D51">
-        <f>SUM(H44,N44,T44,Z44,AF44,AL44,AR44)</f>
-        <v>32</v>
+        <f>SUM(H44,N44,T44,Z44,AF44,AL44,AR44,AX44)</f>
+        <v>33</v>
       </c>
       <c r="E51">
-        <f>SUM(H45,N45,T45,Z45,AF45,AL45,AR45)</f>
+        <f>SUM(H45,N45,T45,Z45,AF45,AL45,AR45,AX45)</f>
         <v>26</v>
       </c>
       <c r="F51">
-        <f>SUM(H46,N46,T46,Z46,AF46,AL46,AR46)</f>
+        <f>SUM(H46,N46,T46,Z46,AF46,AL46,AR46,AX46)</f>
         <v>33</v>
       </c>
       <c r="G51">
-        <f>SUM(H47,N47,T47,Z47,AF47,AL47,AR47)</f>
+        <f>SUM(H47,N47,T47,Z47,AF47,AL47,AR47,AX47)</f>
         <v>8</v>
       </c>
     </row>
@@ -2873,11 +3054,11 @@
       </c>
       <c r="C52">
         <f>$A$55*C51</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D52">
         <f>$A$55*D51</f>
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E52">
         <f>$A$55*E51</f>
@@ -2916,7 +3097,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>SUM(C52:G52)</f>
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>40</v>
@@ -2933,14 +3114,14 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <f>B58*A57</f>
-        <v>4800</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="34"/>
+      <c r="B64" s="33"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -2973,10 +3154,10 @@
       <c r="B69" s="20"/>
     </row>
     <row r="71" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="34"/>
+      <c r="B71" s="33"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -3019,10 +3200,10 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="34"/>
+      <c r="B78" s="33"/>
     </row>
     <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
@@ -3082,7 +3263,7 @@
       <c r="B96" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="A1:B1"/>
@@ -3091,6 +3272,7 @@
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="S17:Y17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bolos\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30936EBE-5B99-49C1-A6E2-8C6C08B8C671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{302A8C17-53DE-43D1-8D5A-41B0400CA0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="810" windowWidth="21600" windowHeight="12930" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
+    <workbookView xWindow="2595" yWindow="1410" windowWidth="21600" windowHeight="12930" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="70">
   <si>
     <t>Atividades</t>
   </si>
@@ -223,8 +223,26 @@
     <t>3⁼, 5⁼</t>
   </si>
   <si>
+    <t>Ajudante intermediario</t>
+  </si>
+  <si>
+    <t>Ajudante simples</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>Dia/Abril</t>
+  </si>
+  <si>
+    <t>Todos integrantes</t>
+  </si>
+  <si>
     <r>
-      <t>1⁻, 2⁻, 3⁼, 4</t>
+      <t>1⁻, 2=, 3⁼, 4</t>
     </r>
     <r>
       <rPr>
@@ -238,22 +256,7 @@
     </r>
   </si>
   <si>
-    <t>Ajudante intermediario</t>
-  </si>
-  <si>
-    <t>Ajudante simples</t>
-  </si>
-  <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 4</t>
-  </si>
-  <si>
-    <t>Dia/Abril</t>
-  </si>
-  <si>
-    <t>apresentação</t>
+    <t>Apresentação</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -472,12 +475,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -518,6 +541,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,6 +562,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -853,15 +893,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031B188A-FB66-423D-ADB7-527F5C367F13}">
   <dimension ref="A1:AX96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG55" sqref="AG55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE34" sqref="AE34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
@@ -876,7 +916,8 @@
     <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
     <col min="21" max="25" width="3" customWidth="1"/>
     <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="3.140625" customWidth="1"/>
     <col min="30" max="30" width="3.28515625" customWidth="1"/>
     <col min="31" max="31" width="3.140625" customWidth="1"/>
@@ -895,35 +936,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="34" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="32" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="33"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="34"/>
       <c r="Z1" s="30"/>
       <c r="AA1" s="31"/>
       <c r="AB1" s="31"/>
@@ -964,7 +1005,7 @@
       <c r="G2" s="1">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="17">
@@ -982,25 +1023,25 @@
       <c r="M2" s="17">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="17">
-        <v>28</v>
-      </c>
-      <c r="P2" s="17">
+      <c r="O2" s="1">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1">
         <v>1</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="1">
         <v>2</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="1">
         <v>3</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="1">
         <v>4</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="U2" s="17">
@@ -1035,24 +1076,25 @@
       <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="2"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="42"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="7"/>
+      <c r="Z3" s="43"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1066,24 +1108,25 @@
       <c r="E4" s="10"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="2"/>
+      <c r="N4" s="42"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="2"/>
+      <c r="T4" s="42"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
+      <c r="Z4" s="43"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1097,24 +1140,25 @@
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="7"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="7"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="2"/>
+      <c r="N5" s="42"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="2"/>
+      <c r="T5" s="42"/>
       <c r="U5" s="14"/>
       <c r="V5" s="6"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
+      <c r="Z5" s="43"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1128,24 +1172,25 @@
       <c r="E6" s="4"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="2"/>
+      <c r="N6" s="42"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="2"/>
+      <c r="T6" s="42"/>
       <c r="U6" s="1"/>
       <c r="V6" s="8"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
+      <c r="Z6" s="43"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1159,24 +1204,25 @@
       <c r="E7" s="21"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="42"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="2"/>
+      <c r="T7" s="42"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
+      <c r="Z7" s="43"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1190,55 +1236,57 @@
       <c r="E8" s="4"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="14"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="2"/>
+      <c r="N8" s="42"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="6"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="2"/>
+      <c r="T8" s="42"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="12"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="12"/>
+      <c r="Z8" s="43"/>
     </row>
     <row r="9" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="42"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="2"/>
+      <c r="T9" s="42"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
+      <c r="Z9" s="43"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1252,24 +1300,25 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="7"/>
       <c r="L10" s="13"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="9"/>
+      <c r="N10" s="42"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="7"/>
       <c r="S10" s="14"/>
-      <c r="T10" s="2"/>
+      <c r="T10" s="42"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="1"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
+      <c r="Z10" s="43"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1283,24 +1332,25 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="42"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="2"/>
+      <c r="T11" s="42"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="11"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="13"/>
+      <c r="Z11" s="43"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1314,24 +1364,25 @@
       <c r="E12" s="8"/>
       <c r="F12" s="7"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="42"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="2"/>
+      <c r="T12" s="42"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
+      <c r="Z12" s="43"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1345,55 +1396,61 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="42"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="42"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="2"/>
+      <c r="T13" s="42"/>
       <c r="U13" s="1"/>
       <c r="V13" s="8"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
+      <c r="Z13" s="43"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>68</v>
+      <c r="A14" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
+      <c r="N14" s="42"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
+      <c r="T14" s="42"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
+      <c r="Z14" s="43"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -1467,38 +1524,68 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="34" t="s">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+    </row>
+    <row r="17" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-    </row>
-    <row r="18" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+    </row>
+    <row r="18" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1559,26 +1646,29 @@
       <c r="T18" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="17">
         <v>4</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="17">
         <v>5</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="17">
         <v>6</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="17">
         <v>7</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y18" s="17">
         <v>8</v>
       </c>
       <c r="Z18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA18" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1590,23 +1680,28 @@
       <c r="E19" s="14"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
+      <c r="H19" s="42"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
+      <c r="N19" s="42"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
+      <c r="T19" s="42"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1618,23 +1713,28 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
+      <c r="N20" s="42"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
+      <c r="T20" s="42"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>26</v>
       </c>
@@ -1646,23 +1746,28 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
+      <c r="H21" s="42"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
+      <c r="N21" s="42"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
+      <c r="T21" s="42"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
@@ -1674,23 +1779,28 @@
       <c r="E22" s="14"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
+      <c r="N22" s="42"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
+      <c r="T22" s="42"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -1702,23 +1812,28 @@
       <c r="E23" s="14"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
+      <c r="N23" s="42"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
+      <c r="T23" s="42"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
@@ -1730,51 +1845,61 @@
       <c r="E24" s="1"/>
       <c r="F24" s="6"/>
       <c r="G24" s="1"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
+      <c r="N24" s="42"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
+      <c r="T24" s="42"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
+      <c r="H25" s="42"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
+      <c r="N25" s="42"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T25" s="42"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
@@ -1786,23 +1911,28 @@
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>
       <c r="G26" s="7"/>
+      <c r="H26" s="42"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="1"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
+      <c r="N26" s="42"/>
       <c r="O26" s="1"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
+      <c r="T26" s="42"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V26" s="7"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>14</v>
       </c>
@@ -1814,23 +1944,28 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
+      <c r="H27" s="42"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="1"/>
+      <c r="N27" s="42"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
+      <c r="T27" s="42"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>15</v>
       </c>
@@ -1842,23 +1977,28 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="42"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
+      <c r="T28" s="42"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>16</v>
       </c>
@@ -1870,51 +2010,61 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
+      <c r="H29" s="42"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="11"/>
       <c r="M29" s="1"/>
+      <c r="N29" s="42"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>68</v>
+      <c r="T29" s="42"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
+      <c r="H30" s="42"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
+      <c r="N30" s="42"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="11"/>
+      <c r="T30" s="42"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="7"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2209,13 +2359,21 @@
       <c r="AS36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AT36" s="1"/>
-      <c r="AU36" s="1"/>
-      <c r="AV36" s="1"/>
-      <c r="AW36" s="1"/>
+      <c r="AT36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW36" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="AX36">
         <f>COUNTBLANK(AS36:AW36)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:50" x14ac:dyDescent="0.25">
@@ -2352,13 +2510,21 @@
       <c r="AS37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AT37" s="1"/>
-      <c r="AU37" s="1"/>
-      <c r="AV37" s="1"/>
-      <c r="AW37" s="1"/>
+      <c r="AT37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW37" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="AX37">
         <f>COUNTBLANK(AS37:AW37)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:50" x14ac:dyDescent="0.25">
@@ -2477,14 +2643,20 @@
         <f>COUNTBLANK(AM38:AQ38)</f>
         <v>0</v>
       </c>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="1"/>
+      <c r="AS38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT38" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="AU38" s="1"/>
-      <c r="AV38" s="1"/>
+      <c r="AV38" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="AW38" s="1"/>
       <c r="AX38">
         <f>COUNTBLANK(AS38:AW38)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:50" x14ac:dyDescent="0.25">
@@ -2618,13 +2790,21 @@
         <v>0</v>
       </c>
       <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
-      <c r="AU39" s="1"/>
-      <c r="AV39" s="1"/>
-      <c r="AW39" s="1"/>
+      <c r="AT39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW39" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="AX39">
         <f>COUNTBLANK(AS39:AW39)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:50" x14ac:dyDescent="0.25">
@@ -2777,7 +2957,7 @@
       </c>
       <c r="AX43">
         <f>$H$42-AX36</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:50" x14ac:dyDescent="0.25">
@@ -2832,7 +3012,7 @@
       </c>
       <c r="AX44">
         <f>$H$42-AX37</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:50" x14ac:dyDescent="0.25">
@@ -2886,8 +3066,8 @@
         <v>5</v>
       </c>
       <c r="AX45">
-        <f t="shared" ref="AX44:AX47" si="4">$H$42-AX38</f>
-        <v>0</v>
+        <f t="shared" ref="AX45:AX47" si="4">$H$42-AX38</f>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="2:50" x14ac:dyDescent="0.25">
@@ -2942,7 +3122,7 @@
       </c>
       <c r="AX46">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="2:50" x14ac:dyDescent="0.25">
@@ -3029,19 +3209,19 @@
       </c>
       <c r="C51">
         <f>SUM(H43,N43,T43,Z43,AF43,AL43,AR43,AX43)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D51">
         <f>SUM(H44,N44,T44,Z44,AF44,AL44,AR44,AX44)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E51">
         <f>SUM(H45,N45,T45,Z45,AF45,AL45,AR45,AX45)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F51">
         <f>SUM(H46,N46,T46,Z46,AF46,AL46,AR46,AX46)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G51">
         <f>SUM(H47,N47,T47,Z47,AF47,AL47,AR47,AX47)</f>
@@ -3049,24 +3229,28 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <f>SUM(C52:G52)</f>
+        <v>548</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C52">
         <f>$A$55*C51</f>
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D52">
         <f>$A$55*D51</f>
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E52">
         <f>$A$55*E51</f>
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F52">
         <f>$A$55*F51</f>
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G52">
         <f>$A$55*G51</f>
@@ -3097,7 +3281,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>SUM(C52:G52)</f>
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>40</v>
@@ -3114,156 +3298,223 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <f>B58*A57</f>
-        <v>4880</v>
-      </c>
+        <v>5480</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="40"/>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="33"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="34"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="40"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B65" s="5"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="39"/>
+      <c r="D65" s="40"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="39"/>
+      <c r="D66" s="40"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="7"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="39"/>
+      <c r="D67" s="40"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B68" s="8"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="39"/>
+      <c r="D68" s="40"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B69" s="20"/>
-    </row>
-    <row r="71" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="32" t="s">
+      <c r="C69" s="39"/>
+      <c r="D69" s="40"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="40"/>
+    </row>
+    <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="33"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="34"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="40"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="43"/>
+      <c r="D72" s="40"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B73" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="43"/>
+      <c r="D73" s="40"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B74" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="43"/>
+      <c r="D74" s="40"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B75" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="43"/>
+      <c r="D75" s="40"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B76" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="32" t="s">
+      <c r="C76" s="43"/>
+      <c r="D76" s="40"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="40"/>
+    </row>
+    <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="33"/>
-    </row>
-    <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B78" s="34"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="40"/>
+    </row>
+    <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79" s="29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C79" s="43"/>
+      <c r="D79" s="40"/>
+    </row>
+    <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B80" s="29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C80" s="43"/>
+      <c r="D80" s="40"/>
+    </row>
+    <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B81" s="29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" s="43"/>
+      <c r="D81" s="40"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="41"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="40"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B86" s="27"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B87" s="26"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" s="26"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B89" s="27"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B90" s="26"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" s="26"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="28"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" s="26"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" s="26"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" s="27"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="26">
+    <mergeCell ref="S17:AA17"/>
+    <mergeCell ref="T19:T30"/>
+    <mergeCell ref="N19:N30"/>
+    <mergeCell ref="H19:H30"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C71:C76"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="A1:B1"/>
@@ -3272,7 +3523,13 @@
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="A16:Z16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H3:H14"/>
+    <mergeCell ref="N3:N14"/>
+    <mergeCell ref="T3:T14"/>
+    <mergeCell ref="Z3:Z14"/>
+    <mergeCell ref="Z19:Z30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3427,18 +3684,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3460,25 +3717,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D475898-E486-42AB-878D-446EFC1D4EB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8a97343b-4b20-40ce-9e20-8607f0999062"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CA5E52C-7D7F-4D00-BA0A-5B3943FBF186}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D475898-E486-42AB-878D-446EFC1D4EB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8a97343b-4b20-40ce-9e20-8607f0999062"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bolos\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{302A8C17-53DE-43D1-8D5A-41B0400CA0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D34FFB9-7E1A-4F44-A8B2-6196B86DEE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="1410" windowWidth="21600" windowHeight="12930" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
+    <workbookView xWindow="2715" yWindow="780" windowWidth="21600" windowHeight="12930" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="70">
   <si>
     <t>Atividades</t>
   </si>
@@ -241,8 +241,11 @@
     <t>Todos integrantes</t>
   </si>
   <si>
+    <t>Apresentação</t>
+  </si>
+  <si>
     <r>
-      <t>1⁻, 2=, 3⁼, 4</t>
+      <t>1⁻, 2⁼, 3⁼, 4</t>
     </r>
     <r>
       <rPr>
@@ -254,9 +257,6 @@
       </rPr>
       <t>⁺</t>
     </r>
-  </si>
-  <si>
-    <t>Apresentação</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -544,19 +544,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -565,17 +568,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -891,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031B188A-FB66-423D-ADB7-527F5C367F13}">
-  <dimension ref="A1:AX96"/>
+  <dimension ref="A1:BD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE34" sqref="AE34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,38 +934,39 @@
     <col min="46" max="48" width="3.28515625" customWidth="1"/>
     <col min="49" max="49" width="3.140625" customWidth="1"/>
     <col min="50" max="50" width="7.85546875" customWidth="1"/>
+    <col min="51" max="55" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="35" t="s">
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="33" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="34"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="40"/>
       <c r="Z1" s="30"/>
       <c r="AA1" s="31"/>
       <c r="AB1" s="31"/>
@@ -1076,25 +1078,25 @@
       <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="42"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="42"/>
+      <c r="T3" s="43"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="43"/>
+      <c r="Z3" s="44"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1108,25 +1110,25 @@
       <c r="E4" s="10"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="42"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="42"/>
+      <c r="N4" s="43"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="42"/>
+      <c r="T4" s="43"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="43"/>
+      <c r="Z4" s="44"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1140,25 +1142,25 @@
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="7"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="7"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="42"/>
+      <c r="N5" s="43"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="42"/>
+      <c r="T5" s="43"/>
       <c r="U5" s="14"/>
       <c r="V5" s="6"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="43"/>
+      <c r="Z5" s="44"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1172,25 +1174,25 @@
       <c r="E6" s="4"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="42"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="42"/>
+      <c r="N6" s="43"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="42"/>
+      <c r="T6" s="43"/>
       <c r="U6" s="1"/>
       <c r="V6" s="8"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="43"/>
+      <c r="Z6" s="44"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1204,25 +1206,25 @@
       <c r="E7" s="21"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="42"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="42"/>
+      <c r="N7" s="43"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="42"/>
+      <c r="T7" s="43"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="43"/>
+      <c r="Z7" s="44"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1236,57 +1238,57 @@
       <c r="E8" s="4"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="42"/>
+      <c r="H8" s="43"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="14"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="42"/>
+      <c r="N8" s="43"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="6"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="42"/>
+      <c r="T8" s="43"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="12"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="43"/>
+      <c r="Z8" s="44"/>
     </row>
     <row r="9" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="42"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="42"/>
+      <c r="N9" s="43"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="42"/>
+      <c r="T9" s="43"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="43"/>
+      <c r="Z9" s="44"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1300,25 +1302,25 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="42"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="7"/>
       <c r="L10" s="13"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="42"/>
+      <c r="N10" s="43"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="7"/>
       <c r="S10" s="14"/>
-      <c r="T10" s="42"/>
+      <c r="T10" s="43"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="1"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="43"/>
+      <c r="Z10" s="44"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1332,25 +1334,25 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="42"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="42"/>
+      <c r="N11" s="43"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="42"/>
+      <c r="T11" s="43"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="11"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="13"/>
-      <c r="Z11" s="43"/>
+      <c r="Z11" s="44"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1364,25 +1366,25 @@
       <c r="E12" s="8"/>
       <c r="F12" s="7"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="42"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="42"/>
+      <c r="N12" s="43"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="42"/>
+      <c r="T12" s="43"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="43"/>
+      <c r="Z12" s="44"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1396,29 +1398,29 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="42"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="42"/>
+      <c r="N13" s="43"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="42"/>
+      <c r="T13" s="43"/>
       <c r="U13" s="1"/>
       <c r="V13" s="8"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="43"/>
+      <c r="Z13" s="44"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>67</v>
@@ -1428,29 +1430,29 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="42"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="42"/>
+      <c r="N14" s="43"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="42"/>
+      <c r="T14" s="43"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="43"/>
+      <c r="Z14" s="44"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -1525,67 +1527,68 @@
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-    </row>
-    <row r="17" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="35" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+    </row>
+    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-    </row>
-    <row r="18" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+    </row>
+    <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1667,8 +1670,9 @@
       <c r="AA18" s="17">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1680,28 +1684,29 @@
       <c r="E19" s="14"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="42"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="42"/>
+      <c r="N19" s="43"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="42"/>
+      <c r="T19" s="43"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="43"/>
+      <c r="Z19" s="44"/>
       <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1713,28 +1718,29 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="42"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="42"/>
+      <c r="N20" s="43"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="42"/>
+      <c r="T20" s="43"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="43"/>
+      <c r="Z20" s="44"/>
       <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>26</v>
       </c>
@@ -1746,28 +1752,29 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="42"/>
+      <c r="H21" s="43"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="42"/>
+      <c r="N21" s="43"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="42"/>
+      <c r="T21" s="43"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="43"/>
+      <c r="Z21" s="44"/>
       <c r="AA21" s="1"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB21" s="1"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
@@ -1779,28 +1786,29 @@
       <c r="E22" s="14"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="42"/>
+      <c r="H22" s="43"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="42"/>
+      <c r="N22" s="43"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="42"/>
+      <c r="T22" s="43"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="43"/>
+      <c r="Z22" s="44"/>
       <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22" s="1"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -1812,28 +1820,29 @@
       <c r="E23" s="14"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="42"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="42"/>
+      <c r="N23" s="43"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="42"/>
+      <c r="T23" s="43"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="43"/>
+      <c r="Z23" s="44"/>
       <c r="AA23" s="1"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB23" s="1"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
@@ -1845,61 +1854,63 @@
       <c r="E24" s="1"/>
       <c r="F24" s="6"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="42"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="42"/>
+      <c r="N24" s="43"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="42"/>
+      <c r="T24" s="43"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="43"/>
+      <c r="Z24" s="44"/>
       <c r="AA24" s="1"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AB24" s="1"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="42"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="42"/>
+      <c r="N25" s="43"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-      <c r="T25" s="42"/>
+      <c r="T25" s="43"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="43"/>
+      <c r="Z25" s="44"/>
       <c r="AA25" s="1"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB25" s="1"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
@@ -1911,28 +1922,29 @@
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="42"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="1"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="42"/>
+      <c r="N26" s="43"/>
       <c r="O26" s="1"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
-      <c r="T26" s="42"/>
+      <c r="T26" s="43"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="11"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="43"/>
+      <c r="Z26" s="44"/>
       <c r="AA26" s="1"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26" s="1"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>14</v>
       </c>
@@ -1944,28 +1956,29 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="42"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="42"/>
+      <c r="N27" s="43"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="42"/>
+      <c r="T27" s="43"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="43"/>
+      <c r="Z27" s="44"/>
       <c r="AA27" s="1"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB27" s="1"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>15</v>
       </c>
@@ -1977,28 +1990,29 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="42"/>
+      <c r="H28" s="43"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="42"/>
+      <c r="N28" s="43"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="42"/>
+      <c r="T28" s="43"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="43"/>
+      <c r="Z28" s="44"/>
       <c r="AA28" s="1"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB28" s="1"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>16</v>
       </c>
@@ -2010,30 +2024,31 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="42"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="11"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="42"/>
+      <c r="N29" s="43"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
-      <c r="T29" s="42"/>
+      <c r="T29" s="43"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="1"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>65</v>
@@ -2043,28 +2058,29 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="42"/>
+      <c r="H30" s="43"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="42"/>
+      <c r="N30" s="43"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="11"/>
-      <c r="T30" s="42"/>
+      <c r="T30" s="43"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-      <c r="Z30" s="43"/>
+      <c r="Z30" s="44"/>
       <c r="AA30" s="7"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB30" s="7"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2123,7 +2139,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:56" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>14</v>
       </c>
@@ -2246,8 +2262,24 @@
       <c r="AW35" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AY35" s="1">
+        <v>11</v>
+      </c>
+      <c r="AZ35" s="1">
+        <v>12</v>
+      </c>
+      <c r="BA35" s="1">
+        <v>13</v>
+      </c>
+      <c r="BB35" s="35">
+        <v>14</v>
+      </c>
+      <c r="BC35" s="1">
+        <v>15</v>
+      </c>
+      <c r="BD35" s="2"/>
+    </row>
+    <row r="36" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -2375,8 +2407,19 @@
         <f>COUNTBLANK(AS36:AW36)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AY36" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="35"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36">
+        <f>COUNTBLANK(AY36:BC36)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>31</v>
       </c>
@@ -2526,8 +2569,19 @@
         <f>COUNTBLANK(AS37:AW37)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AY37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="35"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37">
+        <f t="shared" ref="BD37:BD40" si="0">COUNTBLANK(AY37:BC37)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:56" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>22</v>
       </c>
@@ -2658,8 +2712,17 @@
         <f>COUNTBLANK(AS38:AW38)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="35"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:56" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>29</v>
       </c>
@@ -2806,8 +2869,19 @@
         <f>COUNTBLANK(AS39:AW39)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AY39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="35"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:56" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2896,8 +2970,17 @@
         <f>COUNTBLANK(AS40:AW40)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="35"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:56" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>39</v>
       </c>
@@ -2905,7 +2988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:56" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>43</v>
       </c>
@@ -2959,8 +3042,12 @@
         <f>$H$42-AX36</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="BD43">
+        <f>$H$42-BD36</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:56" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>42</v>
       </c>
@@ -2986,36 +3073,40 @@
         <v>42</v>
       </c>
       <c r="Z44">
-        <f t="shared" ref="Z44:Z47" si="0">$H$42-Z37</f>
+        <f t="shared" ref="Z44:Z47" si="1">$H$42-Z37</f>
         <v>5</v>
       </c>
       <c r="AE44" t="s">
         <v>42</v>
       </c>
       <c r="AF44">
-        <f t="shared" ref="AF44:AF47" si="1">$H$42-AF37</f>
+        <f t="shared" ref="AF44:AF47" si="2">$H$42-AF37</f>
         <v>5</v>
       </c>
       <c r="AK44" t="s">
         <v>42</v>
       </c>
       <c r="AL44">
-        <f t="shared" ref="AL44:AL47" si="2">$H$42-AL37</f>
+        <f t="shared" ref="AL44:AL47" si="3">$H$42-AL37</f>
         <v>4</v>
       </c>
       <c r="AQ44" t="s">
         <v>42</v>
       </c>
       <c r="AR44">
-        <f t="shared" ref="AR44:AR47" si="3">$H$42-AR37</f>
+        <f t="shared" ref="AR44:AR47" si="4">$H$42-AR37</f>
         <v>5</v>
       </c>
       <c r="AX44">
         <f>$H$42-AX37</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="BD44">
+        <f>$H$42-BD37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:56" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>44</v>
       </c>
@@ -3041,36 +3132,40 @@
         <v>44</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AE45" t="s">
         <v>44</v>
       </c>
       <c r="AF45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AK45" t="s">
         <v>44</v>
       </c>
       <c r="AL45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AQ45" t="s">
         <v>44</v>
       </c>
       <c r="AR45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AX45">
-        <f t="shared" ref="AX45:AX47" si="4">$H$42-AX38</f>
+        <f t="shared" ref="AX45:AX47" si="5">$H$42-AX38</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="BD45">
+        <f>$H$42-BD38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:56" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
         <v>41</v>
       </c>
@@ -3096,36 +3191,40 @@
         <v>41</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AE46" t="s">
         <v>41</v>
       </c>
       <c r="AF46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AK46" t="s">
         <v>41</v>
       </c>
       <c r="AL46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AQ46" t="s">
         <v>41</v>
       </c>
       <c r="AR46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AX46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="BD46">
+        <f>$H$42-BD39</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:56" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>45</v>
       </c>
@@ -3151,36 +3250,40 @@
         <v>45</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AE47" t="s">
         <v>45</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AK47" t="s">
         <v>45</v>
       </c>
       <c r="AL47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AQ47" t="s">
         <v>45</v>
       </c>
       <c r="AR47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AX47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AX47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <f>$H$42-BD40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:56" x14ac:dyDescent="0.25">
       <c r="AM48" s="23"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3208,41 +3311,41 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <f>SUM(H43,N43,T43,Z43,AF43,AL43,AR43,AX43)</f>
-        <v>26</v>
+        <f>SUM(H43,N43,T43,Z43,AF43,AL43,AR43,AX43,BD43)</f>
+        <v>27</v>
       </c>
       <c r="D51">
-        <f>SUM(H44,N44,T44,Z44,AF44,AL44,AR44,AX44)</f>
-        <v>37</v>
+        <f>SUM(H44,N44,T44,Z44,AF44,AL44,AR44,AX44,BD44)</f>
+        <v>38</v>
       </c>
       <c r="E51">
-        <f>SUM(H45,N45,T45,Z45,AF45,AL45,AR45,AX45)</f>
+        <f>SUM(H45,N45,T45,Z45,AF45,AL45,AR45,AX45,BD45)</f>
         <v>29</v>
       </c>
       <c r="F51">
-        <f>SUM(H46,N46,T46,Z46,AF46,AL46,AR46,AX46)</f>
-        <v>37</v>
+        <f>SUM(H46,N46,T46,Z46,AF46,AL46,AR46,AX46,BD46)</f>
+        <v>38</v>
       </c>
       <c r="G51">
-        <f>SUM(H47,N47,T47,Z47,AF47,AL47,AR47,AX47)</f>
+        <f>SUM(H47,N47,T47,Z47,AF47,AL47,AR47,AX47,BD47)</f>
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f>SUM(C52:G52)</f>
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C52">
         <f>$A$55*C51</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D52">
         <f>$A$55*D51</f>
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E52">
         <f>$A$55*E51</f>
@@ -3250,7 +3353,7 @@
       </c>
       <c r="F52">
         <f>$A$55*F51</f>
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G52">
         <f>$A$55*G51</f>
@@ -3281,7 +3384,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>SUM(C52:G52)</f>
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>40</v>
@@ -3298,76 +3401,76 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <f>B58*A57</f>
-        <v>5480</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="40"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="33"/>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="33"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B65" s="5"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="40"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="33"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B66" s="6"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="40"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="33"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="7"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="40"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="33"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B68" s="8"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="40"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="33"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B69" s="20"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="40"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="33"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="40"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="33"/>
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="34"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="33"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -3376,8 +3479,8 @@
       <c r="B72" s="1">
         <v>1</v>
       </c>
-      <c r="C72" s="43"/>
-      <c r="D72" s="40"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="33"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -3386,8 +3489,8 @@
       <c r="B73" s="1">
         <v>2</v>
       </c>
-      <c r="C73" s="43"/>
-      <c r="D73" s="40"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="33"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -3396,8 +3499,8 @@
       <c r="B74" s="1">
         <v>3</v>
       </c>
-      <c r="C74" s="43"/>
-      <c r="D74" s="40"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="33"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -3406,8 +3509,8 @@
       <c r="B75" s="1">
         <v>4</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="40"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="33"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
@@ -3416,22 +3519,22 @@
       <c r="B76" s="11">
         <v>5</v>
       </c>
-      <c r="C76" s="43"/>
-      <c r="D76" s="40"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="33"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="40"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="33"/>
     </row>
     <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="34"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="33"/>
     </row>
     <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
@@ -3440,8 +3543,8 @@
       <c r="B79" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="43"/>
-      <c r="D79" s="40"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="33"/>
     </row>
     <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
@@ -3450,8 +3553,8 @@
       <c r="B80" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C80" s="43"/>
-      <c r="D80" s="40"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="33"/>
     </row>
     <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
@@ -3460,14 +3563,14 @@
       <c r="B81" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C81" s="43"/>
-      <c r="D81" s="40"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="33"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="40"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="33"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B86" s="27"/>
@@ -3504,11 +3607,10 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="S17:AA17"/>
-    <mergeCell ref="T19:T30"/>
     <mergeCell ref="N19:N30"/>
     <mergeCell ref="H19:H30"/>
     <mergeCell ref="A63:C63"/>
+    <mergeCell ref="S17:AB17"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="C78:C81"/>
@@ -3530,6 +3632,7 @@
     <mergeCell ref="T3:T14"/>
     <mergeCell ref="Z3:Z14"/>
     <mergeCell ref="Z19:Z30"/>
+    <mergeCell ref="T19:T30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3719,15 +3822,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D475898-E486-42AB-878D-446EFC1D4EB4}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8a97343b-4b20-40ce-9e20-8607f0999062"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8a97343b-4b20-40ce-9e20-8607f0999062"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bolos\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D34FFB9-7E1A-4F44-A8B2-6196B86DEE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA25D12C-2B8E-4190-A890-04036C21BEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="780" windowWidth="21600" windowHeight="12930" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="70">
   <si>
     <t>Atividades</t>
   </si>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031B188A-FB66-423D-ADB7-527F5C367F13}">
   <dimension ref="A1:BD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF33" sqref="AF33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1554,7 @@
       <c r="Y16" s="42"/>
       <c r="Z16" s="42"/>
     </row>
-    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="37"/>
       <c r="B17" s="41"/>
       <c r="C17" s="36" t="s">
@@ -1587,8 +1587,9 @@
       <c r="Z17" s="36"/>
       <c r="AA17" s="36"/>
       <c r="AB17" s="36"/>
-    </row>
-    <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AC17" s="36"/>
+    </row>
+    <row r="18" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1670,9 +1671,14 @@
       <c r="AA18" s="17">
         <v>11</v>
       </c>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB18" s="17">
+        <v>12</v>
+      </c>
+      <c r="AC18" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1705,8 +1711,9 @@
       <c r="Z19" s="44"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1739,8 +1746,9 @@
       <c r="Z20" s="44"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +1781,9 @@
       <c r="Z21" s="44"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
@@ -1807,8 +1816,9 @@
       <c r="Z22" s="44"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -1841,8 +1851,9 @@
       <c r="Z23" s="44"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
@@ -1875,8 +1886,9 @@
       <c r="Z24" s="44"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>12</v>
       </c>
@@ -1909,8 +1921,9 @@
       <c r="Z25" s="44"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
@@ -1943,8 +1956,9 @@
       <c r="Z26" s="44"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>14</v>
       </c>
@@ -1977,8 +1991,9 @@
       <c r="Z27" s="44"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC27" s="1"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>15</v>
       </c>
@@ -2011,8 +2026,9 @@
       <c r="Z28" s="44"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC28" s="1"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>16</v>
       </c>
@@ -2045,8 +2061,9 @@
       <c r="Z29" s="44"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>68</v>
       </c>
@@ -2077,10 +2094,11 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="44"/>
-      <c r="AA30" s="7"/>
+      <c r="AA30" s="11"/>
       <c r="AB30" s="7"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2410,13 +2428,15 @@
       <c r="AY36" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AZ36" s="1"/>
+      <c r="AZ36" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="BA36" s="1"/>
       <c r="BB36" s="35"/>
       <c r="BC36" s="1"/>
       <c r="BD36">
         <f>COUNTBLANK(AY36:BC36)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:56" x14ac:dyDescent="0.25">
@@ -2572,13 +2592,15 @@
       <c r="AY37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AZ37" s="1"/>
+      <c r="AZ37" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="BA37" s="1"/>
       <c r="BB37" s="35"/>
       <c r="BC37" s="1"/>
       <c r="BD37">
         <f t="shared" ref="BD37:BD40" si="0">COUNTBLANK(AY37:BC37)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:56" x14ac:dyDescent="0.25">
@@ -2712,14 +2734,18 @@
         <f>COUNTBLANK(AS38:AW38)</f>
         <v>2</v>
       </c>
-      <c r="AY38" s="1"/>
-      <c r="AZ38" s="1"/>
+      <c r="AY38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ38" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="BA38" s="1"/>
       <c r="BB38" s="35"/>
       <c r="BC38" s="1"/>
       <c r="BD38">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:56" x14ac:dyDescent="0.25">
@@ -2872,13 +2898,15 @@
       <c r="AY39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AZ39" s="1"/>
+      <c r="AZ39" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="BA39" s="1"/>
       <c r="BB39" s="35"/>
       <c r="BC39" s="1"/>
       <c r="BD39">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:56" x14ac:dyDescent="0.25">
@@ -3044,7 +3072,7 @@
       </c>
       <c r="BD43">
         <f>$H$42-BD36</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:56" x14ac:dyDescent="0.25">
@@ -3103,7 +3131,7 @@
       </c>
       <c r="BD44">
         <f>$H$42-BD37</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="2:56" x14ac:dyDescent="0.25">
@@ -3162,7 +3190,7 @@
       </c>
       <c r="BD45">
         <f>$H$42-BD38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:56" x14ac:dyDescent="0.25">
@@ -3221,7 +3249,7 @@
       </c>
       <c r="BD46">
         <f>$H$42-BD39</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:56" x14ac:dyDescent="0.25">
@@ -3312,19 +3340,19 @@
       </c>
       <c r="C51">
         <f>SUM(H43,N43,T43,Z43,AF43,AL43,AR43,AX43,BD43)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51">
         <f>SUM(H44,N44,T44,Z44,AF44,AL44,AR44,AX44,BD44)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E51">
         <f>SUM(H45,N45,T45,Z45,AF45,AL45,AR45,AX45,BD45)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F51">
         <f>SUM(H46,N46,T46,Z46,AF46,AL46,AR46,AX46,BD46)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <f>SUM(H47,N47,T47,Z47,AF47,AL47,AR47,AX47,BD47)</f>
@@ -3334,26 +3362,26 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f>SUM(C52:G52)</f>
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C52">
         <f>$A$55*C51</f>
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D52">
         <f>$A$55*D51</f>
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E52">
         <f>$A$55*E51</f>
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F52">
         <f>$A$55*F51</f>
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G52">
         <f>$A$55*G51</f>
@@ -3384,7 +3412,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>SUM(C52:G52)</f>
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>40</v>
@@ -3401,7 +3429,7 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <f>B58*A57</f>
-        <v>5600</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3607,10 +3635,8 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N19:N30"/>
     <mergeCell ref="H19:H30"/>
     <mergeCell ref="A63:C63"/>
-    <mergeCell ref="S17:AB17"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="C78:C81"/>
@@ -3618,6 +3644,7 @@
     <mergeCell ref="C64:C69"/>
     <mergeCell ref="C71:C76"/>
     <mergeCell ref="A78:B78"/>
+    <mergeCell ref="S17:AC17"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="P1:Y1"/>
@@ -3633,6 +3660,7 @@
     <mergeCell ref="Z3:Z14"/>
     <mergeCell ref="Z19:Z30"/>
     <mergeCell ref="T19:T30"/>
+    <mergeCell ref="N19:N30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bolos\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA25D12C-2B8E-4190-A890-04036C21BEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CFD2DCE-0F5D-4E5D-BA4D-F44588DA6E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
+    <workbookView xWindow="2715" yWindow="780" windowWidth="21600" windowHeight="12930" xr2:uid="{3F5A1873-6052-4B87-9D78-E48C2D29C0D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="70">
   <si>
     <t>Atividades</t>
   </si>
@@ -547,34 +547,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -895,7 +895,7 @@
   <dimension ref="A1:BD96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="AY20" sqref="AY19:AZ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,35 +938,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="38" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="40"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="41"/>
       <c r="Z1" s="30"/>
       <c r="AA1" s="31"/>
       <c r="AB1" s="31"/>
@@ -1078,25 +1078,25 @@
       <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="43"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="43"/>
+      <c r="N3" s="36"/>
       <c r="O3" s="34"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="43"/>
+      <c r="T3" s="36"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="44"/>
+      <c r="Z3" s="38"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1110,25 +1110,25 @@
       <c r="E4" s="10"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="43"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="43"/>
+      <c r="N4" s="36"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="43"/>
+      <c r="T4" s="36"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="44"/>
+      <c r="Z4" s="38"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1142,25 +1142,25 @@
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="43"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="7"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="7"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="43"/>
+      <c r="N5" s="36"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="43"/>
+      <c r="T5" s="36"/>
       <c r="U5" s="14"/>
       <c r="V5" s="6"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="44"/>
+      <c r="Z5" s="38"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1174,25 +1174,25 @@
       <c r="E6" s="4"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="43"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="43"/>
+      <c r="N6" s="36"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="43"/>
+      <c r="T6" s="36"/>
       <c r="U6" s="1"/>
       <c r="V6" s="8"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="44"/>
+      <c r="Z6" s="38"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1206,25 +1206,25 @@
       <c r="E7" s="21"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="43"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="43"/>
+      <c r="N7" s="36"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="43"/>
+      <c r="T7" s="36"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="44"/>
+      <c r="Z7" s="38"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1238,25 +1238,25 @@
       <c r="E8" s="4"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="43"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="14"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="43"/>
+      <c r="N8" s="36"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="6"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="43"/>
+      <c r="T8" s="36"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="12"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="44"/>
+      <c r="Z8" s="38"/>
     </row>
     <row r="9" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1270,25 +1270,25 @@
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="43"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="43"/>
+      <c r="N9" s="36"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="43"/>
+      <c r="T9" s="36"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="44"/>
+      <c r="Z9" s="38"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1302,25 +1302,25 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="43"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="7"/>
       <c r="L10" s="13"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="43"/>
+      <c r="N10" s="36"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="7"/>
       <c r="S10" s="14"/>
-      <c r="T10" s="43"/>
+      <c r="T10" s="36"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="1"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="44"/>
+      <c r="Z10" s="38"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1334,25 +1334,25 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="43"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="43"/>
+      <c r="N11" s="36"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="43"/>
+      <c r="T11" s="36"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="11"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="13"/>
-      <c r="Z11" s="44"/>
+      <c r="Z11" s="38"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1366,25 +1366,25 @@
       <c r="E12" s="8"/>
       <c r="F12" s="7"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="43"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="43"/>
+      <c r="N12" s="36"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="43"/>
+      <c r="T12" s="36"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="44"/>
+      <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1398,25 +1398,25 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="43"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="43"/>
+      <c r="N13" s="36"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="43"/>
+      <c r="T13" s="36"/>
       <c r="U13" s="1"/>
       <c r="V13" s="8"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="44"/>
+      <c r="Z13" s="38"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
@@ -1430,29 +1430,29 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="43"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="43"/>
+      <c r="N14" s="36"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="43"/>
+      <c r="T14" s="36"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="44"/>
+      <c r="Z14" s="38"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -1527,67 +1527,67 @@
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
     </row>
     <row r="17" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="36" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
     </row>
     <row r="18" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -1690,25 +1690,25 @@
       <c r="E19" s="14"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="43"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="43"/>
+      <c r="N19" s="36"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="43"/>
+      <c r="T19" s="36"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="44"/>
+      <c r="Z19" s="38"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
@@ -1725,25 +1725,25 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="43"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="43"/>
+      <c r="N20" s="36"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="43"/>
+      <c r="T20" s="36"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="44"/>
+      <c r="Z20" s="38"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
@@ -1760,25 +1760,25 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="43"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="43"/>
+      <c r="N21" s="36"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="43"/>
+      <c r="T21" s="36"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="44"/>
+      <c r="Z21" s="38"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -1795,25 +1795,25 @@
       <c r="E22" s="14"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="43"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="43"/>
+      <c r="N22" s="36"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="43"/>
+      <c r="T22" s="36"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="44"/>
+      <c r="Z22" s="38"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -1830,25 +1830,25 @@
       <c r="E23" s="14"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="43"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="43"/>
+      <c r="N23" s="36"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="43"/>
+      <c r="T23" s="36"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="44"/>
+      <c r="Z23" s="38"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -1865,25 +1865,25 @@
       <c r="E24" s="1"/>
       <c r="F24" s="6"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="43"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="43"/>
+      <c r="N24" s="36"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="43"/>
+      <c r="T24" s="36"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="44"/>
+      <c r="Z24" s="38"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -1900,25 +1900,25 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="43"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="43"/>
+      <c r="N25" s="36"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-      <c r="T25" s="43"/>
+      <c r="T25" s="36"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="44"/>
+      <c r="Z25" s="38"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -1935,25 +1935,25 @@
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="43"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="1"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="43"/>
+      <c r="N26" s="36"/>
       <c r="O26" s="1"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
-      <c r="T26" s="43"/>
+      <c r="T26" s="36"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="11"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="44"/>
+      <c r="Z26" s="38"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
@@ -1970,26 +1970,26 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="43"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="43"/>
+      <c r="N27" s="36"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="43"/>
+      <c r="T27" s="36"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="1"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="7"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
@@ -2005,25 +2005,25 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="43"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="43"/>
+      <c r="N28" s="36"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="43"/>
+      <c r="T28" s="36"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="44"/>
+      <c r="Z28" s="38"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
@@ -2040,28 +2040,28 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="43"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="11"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="43"/>
+      <c r="N29" s="36"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
-      <c r="T29" s="43"/>
+      <c r="T29" s="36"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
-      <c r="Z29" s="44"/>
+      <c r="Z29" s="38"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="1"/>
+      <c r="AC29" s="7"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
@@ -2075,28 +2075,28 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="43"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="43"/>
+      <c r="N30" s="36"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="11"/>
-      <c r="T30" s="43"/>
+      <c r="T30" s="36"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-      <c r="Z30" s="44"/>
+      <c r="Z30" s="38"/>
       <c r="AA30" s="11"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="1"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="7"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
@@ -2431,12 +2431,14 @@
       <c r="AZ36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BA36" s="1"/>
+      <c r="BA36" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="BB36" s="35"/>
       <c r="BC36" s="1"/>
       <c r="BD36">
         <f>COUNTBLANK(AY36:BC36)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:56" x14ac:dyDescent="0.25">
@@ -2595,12 +2597,14 @@
       <c r="AZ37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BA37" s="1"/>
+      <c r="BA37" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="BB37" s="35"/>
       <c r="BC37" s="1"/>
       <c r="BD37">
         <f t="shared" ref="BD37:BD40" si="0">COUNTBLANK(AY37:BC37)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:56" x14ac:dyDescent="0.25">
@@ -2901,12 +2905,14 @@
       <c r="AZ39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BA39" s="1"/>
+      <c r="BA39" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="BB39" s="35"/>
       <c r="BC39" s="1"/>
       <c r="BD39">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:56" x14ac:dyDescent="0.25">
@@ -3072,7 +3078,7 @@
       </c>
       <c r="BD43">
         <f>$H$42-BD36</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="2:56" x14ac:dyDescent="0.25">
@@ -3131,7 +3137,7 @@
       </c>
       <c r="BD44">
         <f>$H$42-BD37</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:56" x14ac:dyDescent="0.25">
@@ -3249,7 +3255,7 @@
       </c>
       <c r="BD46">
         <f>$H$42-BD39</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="2:56" x14ac:dyDescent="0.25">
@@ -3340,11 +3346,11 @@
       </c>
       <c r="C51">
         <f>SUM(H43,N43,T43,Z43,AF43,AL43,AR43,AX43,BD43)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51">
         <f>SUM(H44,N44,T44,Z44,AF44,AL44,AR44,AX44,BD44)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E51">
         <f>SUM(H45,N45,T45,Z45,AF45,AL45,AR45,AX45,BD45)</f>
@@ -3352,7 +3358,7 @@
       </c>
       <c r="F51">
         <f>SUM(H46,N46,T46,Z46,AF46,AL46,AR46,AX46,BD46)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <f>SUM(H47,N47,T47,Z47,AF47,AL47,AR47,AX47,BD47)</f>
@@ -3362,18 +3368,18 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f>SUM(C52:G52)</f>
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C52">
         <f>$A$55*C51</f>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D52">
         <f>$A$55*D51</f>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E52">
         <f>$A$55*E51</f>
@@ -3381,7 +3387,7 @@
       </c>
       <c r="F52">
         <f>$A$55*F51</f>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G52">
         <f>$A$55*G51</f>
@@ -3412,7 +3418,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>SUM(C52:G52)</f>
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>40</v>
@@ -3429,21 +3435,21 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <f>B58*A57</f>
-        <v>5800</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="33"/>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="40"/>
-      <c r="C64" s="42"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="33"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3451,7 +3457,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="5"/>
-      <c r="C65" s="42"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="33"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3459,7 +3465,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="6"/>
-      <c r="C66" s="42"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="33"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3467,7 +3473,7 @@
         <v>6</v>
       </c>
       <c r="B67" s="7"/>
-      <c r="C67" s="42"/>
+      <c r="C67" s="39"/>
       <c r="D67" s="33"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3475,7 +3481,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="8"/>
-      <c r="C68" s="42"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="33"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3483,21 +3489,21 @@
         <v>38</v>
       </c>
       <c r="B69" s="20"/>
-      <c r="C69" s="42"/>
+      <c r="C69" s="39"/>
       <c r="D69" s="33"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
       <c r="D70" s="33"/>
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="40"/>
-      <c r="C71" s="44"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="38"/>
       <c r="D71" s="33"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3507,7 +3513,7 @@
       <c r="B72" s="1">
         <v>1</v>
       </c>
-      <c r="C72" s="44"/>
+      <c r="C72" s="38"/>
       <c r="D72" s="33"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3517,7 +3523,7 @@
       <c r="B73" s="1">
         <v>2</v>
       </c>
-      <c r="C73" s="44"/>
+      <c r="C73" s="38"/>
       <c r="D73" s="33"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3527,7 +3533,7 @@
       <c r="B74" s="1">
         <v>3</v>
       </c>
-      <c r="C74" s="44"/>
+      <c r="C74" s="38"/>
       <c r="D74" s="33"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3537,7 +3543,7 @@
       <c r="B75" s="1">
         <v>4</v>
       </c>
-      <c r="C75" s="44"/>
+      <c r="C75" s="38"/>
       <c r="D75" s="33"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3547,21 +3553,21 @@
       <c r="B76" s="11">
         <v>5</v>
       </c>
-      <c r="C76" s="44"/>
+      <c r="C76" s="38"/>
       <c r="D76" s="33"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
       <c r="D77" s="33"/>
     </row>
     <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="40"/>
-      <c r="C78" s="44"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="38"/>
       <c r="D78" s="33"/>
     </row>
     <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -3571,7 +3577,7 @@
       <c r="B79" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="44"/>
+      <c r="C79" s="38"/>
       <c r="D79" s="33"/>
     </row>
     <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -3581,7 +3587,7 @@
       <c r="B80" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C80" s="44"/>
+      <c r="C80" s="38"/>
       <c r="D80" s="33"/>
     </row>
     <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -3591,13 +3597,13 @@
       <c r="B81" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C81" s="44"/>
+      <c r="C81" s="38"/>
       <c r="D81" s="33"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="45"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
       <c r="D82" s="33"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3635,6 +3641,21 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="Z19:Z30"/>
+    <mergeCell ref="T19:T30"/>
+    <mergeCell ref="N19:N30"/>
+    <mergeCell ref="S17:AC17"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="C17:R17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:Z16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H3:H14"/>
+    <mergeCell ref="N3:N14"/>
+    <mergeCell ref="T3:T14"/>
+    <mergeCell ref="Z3:Z14"/>
     <mergeCell ref="H19:H30"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="A82:C82"/>
@@ -3644,23 +3665,8 @@
     <mergeCell ref="C64:C69"/>
     <mergeCell ref="C71:C76"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="S17:AC17"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="P1:Y1"/>
-    <mergeCell ref="C17:R17"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:Z16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="H3:H14"/>
-    <mergeCell ref="N3:N14"/>
-    <mergeCell ref="T3:T14"/>
-    <mergeCell ref="Z3:Z14"/>
-    <mergeCell ref="Z19:Z30"/>
-    <mergeCell ref="T19:T30"/>
-    <mergeCell ref="N19:N30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3669,6 +3675,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009DFC5D36B0CC624DBEB8429956120FDE" ma:contentTypeVersion="4" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e3cdc7512c4be88b64334644f4cb62c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8a97343b-4b20-40ce-9e20-8607f0999062" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8170e47693c25e86e4aafc28b07a1c70" ns3:_="">
     <xsd:import namespace="8a97343b-4b20-40ce-9e20-8607f0999062"/>
@@ -3814,35 +3835,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6713F9FF-8600-4940-B9CC-B2DCFC1EECBA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CA5E52C-7D7F-4D00-BA0A-5B3943FBF186}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8a97343b-4b20-40ce-9e20-8607f0999062"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3864,9 +3860,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CA5E52C-7D7F-4D00-BA0A-5B3943FBF186}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6713F9FF-8600-4940-B9CC-B2DCFC1EECBA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8a97343b-4b20-40ce-9e20-8607f0999062"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>